--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulisboa-my.sharepoint.com/personal/ist14074_tecnico_ulisboa_pt/Documents/Current/2026 António Medeiros, Rodrigo Fonseca/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulisboa-my.sharepoint.com/personal/ist1100262_tecnico_ulisboa_pt/Documents/MEMec/Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{733EBFC7-8944-45D8-B0FC-2B9A37E95772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{733EBFC7-8944-45D8-B0FC-2B9A37E95772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD564B06-4BC4-4649-B141-F6266A180E68}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{563C961A-BFB9-4F7A-BA15-8C34454DAF79}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{563C961A-BFB9-4F7A-BA15-8C34454DAF79}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -132,12 +132,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -161,19 +161,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -193,20 +180,221 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -216,27 +404,70 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -256,7 +487,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -572,471 +803,473 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A723AB13-D2F9-4241-810A-2D337061B954}">
-  <dimension ref="A1:S17"/>
+  <dimension ref="B1:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="U33" sqref="U33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="85.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="19" width="4" customWidth="1"/>
+    <col min="1" max="1" width="4.453125" customWidth="1"/>
+    <col min="2" max="2" width="70.453125" customWidth="1"/>
+    <col min="3" max="20" width="3.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B2" s="10"/>
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="2" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="2" t="s">
+      <c r="J2" s="4"/>
+      <c r="K2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2" t="s">
+      <c r="L2" s="4"/>
+      <c r="M2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="2" t="s">
+      <c r="N2" s="4"/>
+      <c r="O2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="2" t="s">
+      <c r="P2" s="4"/>
+      <c r="Q2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="2" t="s">
+      <c r="R2" s="4"/>
+      <c r="S2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="3"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="4">
+      <c r="T2" s="5"/>
+    </row>
+    <row r="3" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="11"/>
+      <c r="C3" s="15">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
+      <c r="D3" s="16">
         <v>2</v>
       </c>
-      <c r="D2" s="4">
+      <c r="E3" s="16">
         <v>1</v>
       </c>
-      <c r="E2" s="4">
+      <c r="F3" s="16">
         <v>2</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G3" s="16">
         <v>1</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H3" s="16">
         <v>2</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I3" s="16">
         <v>1</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J3" s="16">
         <v>2</v>
       </c>
-      <c r="J2" s="4">
+      <c r="K3" s="16">
         <v>1</v>
       </c>
-      <c r="K2" s="4">
+      <c r="L3" s="16">
         <v>2</v>
       </c>
-      <c r="L2" s="4">
+      <c r="M3" s="16">
         <v>1</v>
       </c>
-      <c r="M2" s="4">
+      <c r="N3" s="16">
         <v>2</v>
       </c>
-      <c r="N2" s="4">
+      <c r="O3" s="16">
         <v>1</v>
       </c>
-      <c r="O2" s="4">
+      <c r="P3" s="16">
         <v>2</v>
       </c>
-      <c r="P2" s="4">
+      <c r="Q3" s="16">
         <v>1</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="R3" s="16">
         <v>2</v>
       </c>
-      <c r="R2" s="4">
+      <c r="S3" s="16">
         <v>1</v>
       </c>
-      <c r="S2" s="4">
+      <c r="T3" s="17">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="13"/>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="C5" s="19"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="6"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="6"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="6"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="6"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="6"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="6"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="C11" s="1"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="6"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="C12" s="1"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="6"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="C13" s="1"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="6"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="C14" s="1"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="6"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B15" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="C15" s="1"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="6"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B16" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="C16" s="1"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="6"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B17" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="C17" s="1"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="6"/>
+    </row>
+    <row r="18" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
